--- a/biology/Botanique/Hydrangea_arborescens/Hydrangea_arborescens.xlsx
+++ b/biology/Botanique/Hydrangea_arborescens/Hydrangea_arborescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hortensia de Virginie ou hortensia arborescent - Hydrangea arborescens - est un arbuste ornemental de la famille des Hydrangeacées originaire d'Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce compte trois synonymes : Hydrangea vulgaris Michx. (1803), Viburnum alnifolium Marshall (1785), Viburnum americanum Mill. (1768)
 </t>
@@ -542,7 +556,9 @@
           <t>Variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs variétés, formes botaniques et sous-espèces ont été répertoriées :
 Hydrangea arborescens fo. acarpa H.St.John (1922) : voir Hydrangea arborescens subsp. discolor (Ser.) E.M.McClint.
@@ -583,12 +599,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste caduc, pouvant dépasser les 3 m de haut.
 Les feuilles sont vert moyen, larges, ovales et glabres (certaines variétés - 'radiata' - ont un revers argenté).
 En été, la plante produit de larges inflorescences, généralement plates, à petites fleurs fertiles internes blanches, entourées de grandes fleurs stériles blanches.
-Cette espèce compte 36 chromosomes[1].
+Cette espèce compte 36 chromosomes.
 </t>
         </is>
       </c>
@@ -617,7 +635,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une espèce très largement utilisée comme arbuste ornemental et qui se trouve aisément en France. Elle exige un substrat acide à neutre (« terre de bruyère »).
 De nombreuses variétés, cultivars et hybrides horticoles sont disponibles, dont :
